--- a/resource/策划配置/设置/settingconst.xlsx
+++ b/resource/策划配置/设置/settingconst.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ConfSettingConst</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>UseAA</t>
@@ -72,6 +69,15 @@
       <t>.0.0.1</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用抗锯齿</t>
+  </si>
+  <si>
+    <t>本地化语言</t>
+  </si>
+  <si>
+    <t>版本号</t>
   </si>
 </sst>
 </file>
@@ -453,66 +459,68 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="8" style="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
